--- a/data/defaults/client_pricelist.xlsx
+++ b/data/defaults/client_pricelist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PasqualeSenese/Library/CloudStorage/GoogleDrive-evfieldservice@gmail.com/Il mio Drive/EVFS - Interna/Contratti : Key Account/Mobilize/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PasqualeSenese/Downloads/ev_pricing_streamlit_package_v3/data/defaults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA3BE25-3BBD-B94C-A9F0-26A8659406BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD99E9B-FF99-8747-A04D-100307E468F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="1120" windowWidth="22020" windowHeight="15720" xr2:uid="{5DCA0B66-7252-47B2-9676-D8217BF6F10F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>ATTIVITA'</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Item 1.b : Sopralluogo fisico, incluso assorbimento KO</t>
-  </si>
-  <si>
-    <t>Prezzo Medio</t>
   </si>
   <si>
     <t>Manutenzione preventiva/programmata</t>
@@ -264,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,17 +308,11 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D077B93-D701-4B3B-BB8C-17A32DA8D9E0}">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -677,24 +668,24 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="2:24" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -862,52 +853,65 @@
         <v>20</v>
       </c>
       <c r="C6" s="8">
-        <v>375.32000000000005</v>
+        <f>D6-12.8</f>
+        <v>328.79999999999995</v>
       </c>
       <c r="D6" s="8">
-        <v>389.36</v>
+        <f>E6-12.8</f>
+        <v>341.59999999999997</v>
       </c>
       <c r="E6" s="8">
-        <v>402.32000000000005</v>
+        <f>F6-12.8</f>
+        <v>354.4</v>
       </c>
       <c r="F6" s="8">
-        <v>416.36</v>
+        <f>G6-12.8</f>
+        <v>367.2</v>
       </c>
       <c r="G6" s="8">
-        <v>430.40000000000003</v>
+        <v>380</v>
       </c>
       <c r="H6" s="8">
-        <v>444.44000000000005</v>
+        <f>380+13</f>
+        <v>393</v>
       </c>
       <c r="I6" s="8">
-        <v>458.48</v>
+        <f>+H6+13</f>
+        <v>406</v>
       </c>
       <c r="J6" s="8">
-        <v>499.52000000000004</v>
+        <v>444</v>
       </c>
       <c r="K6" s="8">
-        <v>507.08000000000004</v>
+        <f>444+13/2</f>
+        <v>450.5</v>
       </c>
       <c r="L6" s="8">
-        <v>521.12</v>
+        <f>+K6+13</f>
+        <v>463.5</v>
       </c>
       <c r="M6" s="8">
-        <v>568.64</v>
+        <f>508</f>
+        <v>508</v>
       </c>
       <c r="N6" s="8">
-        <v>620.48</v>
+        <f>+M6+48</f>
+        <v>556</v>
       </c>
       <c r="O6" s="8">
-        <v>672.32</v>
+        <f>+N6+48</f>
+        <v>604</v>
       </c>
       <c r="P6" s="8">
-        <v>724.16000000000008</v>
+        <f>+O6+48</f>
+        <v>652</v>
       </c>
       <c r="Q6" s="8">
-        <v>778.16000000000008</v>
+        <f>+P6+50</f>
+        <v>702</v>
       </c>
       <c r="R6" s="8">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="T6" s="9"/>
       <c r="V6" s="9"/>
@@ -933,37 +937,37 @@
         <v>85</v>
       </c>
       <c r="H7" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J7" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N7" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P7" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R7" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
@@ -971,52 +975,52 @@
         <v>22</v>
       </c>
       <c r="C8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="D8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="E8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="F8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="G8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="H8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="I8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="J8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="K8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="L8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="M8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="N8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="O8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="P8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="Q8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="R8" s="8">
-        <v>180</v>
+        <v>179.99534775529193</v>
       </c>
       <c r="T8" s="9"/>
       <c r="V8" s="9"/>
@@ -1026,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="C9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="R9" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="T9" s="9"/>
       <c r="V9" s="9"/>
@@ -1081,52 +1085,52 @@
         <v>24</v>
       </c>
       <c r="C10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="R10" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="T10" s="9"/>
       <c r="V10" s="9"/>
@@ -1198,24 +1202,24 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="2:24" ht="32" x14ac:dyDescent="0.2">
@@ -1379,337 +1383,348 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <f>D18-2*7.2</f>
+        <v>377.40000000000009</v>
+      </c>
+      <c r="D18" s="8">
+        <f>E18-2*7.2</f>
+        <v>391.80000000000007</v>
+      </c>
+      <c r="E18" s="8">
+        <f>F18-2*7.2</f>
+        <v>406.20000000000005</v>
+      </c>
+      <c r="F18" s="8">
+        <f>G18-2*7.2</f>
+        <v>420.6</v>
+      </c>
+      <c r="G18" s="8">
+        <v>435</v>
+      </c>
+      <c r="H18" s="8">
+        <f>I18-2*8.3</f>
+        <v>458.20000000000005</v>
+      </c>
+      <c r="I18" s="8">
+        <f>K18-2*7.2</f>
+        <v>474.80000000000007</v>
+      </c>
+      <c r="J18" s="8">
+        <v>482</v>
+      </c>
+      <c r="K18" s="8">
+        <f>L18-2*7.2</f>
+        <v>489.20000000000005</v>
+      </c>
+      <c r="L18" s="8">
+        <f>M18-2*7.2</f>
+        <v>503.6</v>
+      </c>
+      <c r="M18" s="8">
+        <v>518</v>
+      </c>
+      <c r="N18" s="8">
+        <v>585</v>
+      </c>
+      <c r="O18" s="8">
+        <f>+N18+66</f>
+        <v>651</v>
+      </c>
+      <c r="P18" s="8">
+        <f>+O18+66</f>
+        <v>717</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>783</v>
+      </c>
+      <c r="R18" s="8">
+        <v>850</v>
+      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="21">
-        <v>423.39000000000004</v>
-      </c>
-      <c r="D19" s="21">
-        <v>439.44</v>
-      </c>
-      <c r="E19" s="21">
-        <v>454.42</v>
-      </c>
-      <c r="F19" s="21">
-        <v>470.47</v>
-      </c>
-      <c r="G19" s="21">
-        <v>485.45000000000005</v>
-      </c>
-      <c r="H19" s="21">
-        <v>510.06</v>
-      </c>
-      <c r="I19" s="21">
-        <v>528.25</v>
-      </c>
-      <c r="J19" s="21">
-        <v>535.74</v>
-      </c>
-      <c r="K19" s="21">
-        <v>543.23</v>
-      </c>
-      <c r="L19" s="21">
-        <v>559.28000000000009</v>
-      </c>
-      <c r="M19" s="21">
-        <v>574.26</v>
-      </c>
-      <c r="N19" s="21">
-        <v>645.95000000000005</v>
-      </c>
-      <c r="O19" s="21">
-        <v>716.57</v>
-      </c>
-      <c r="P19" s="21">
-        <v>787.19</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>857.81000000000006</v>
-      </c>
-      <c r="R19" s="21">
-        <v>929.5</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="8">
+        <v>85</v>
+      </c>
+      <c r="D19" s="8">
+        <v>85</v>
+      </c>
+      <c r="E19" s="8">
+        <v>85</v>
+      </c>
+      <c r="F19" s="8">
+        <v>85</v>
+      </c>
+      <c r="G19" s="8">
+        <v>85</v>
+      </c>
+      <c r="H19" s="8">
+        <v>101</v>
+      </c>
+      <c r="I19" s="8">
+        <v>101</v>
+      </c>
+      <c r="J19" s="8">
+        <v>101</v>
+      </c>
+      <c r="K19" s="8">
+        <v>117</v>
+      </c>
+      <c r="L19" s="8">
+        <v>117</v>
+      </c>
+      <c r="M19" s="8">
+        <v>117</v>
+      </c>
+      <c r="N19" s="8">
+        <v>122</v>
+      </c>
+      <c r="O19" s="8">
+        <v>122</v>
+      </c>
+      <c r="P19" s="8">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>122</v>
+      </c>
+      <c r="R19" s="8">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="D20" s="8">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="E20" s="8">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="F20" s="8">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="G20" s="8">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="H20" s="8">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="I20" s="8">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="J20" s="8">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K20" s="8">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="L20" s="8">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="M20" s="8">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="N20" s="8">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="O20" s="8">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="P20" s="8">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="8">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="R20" s="8">
-        <v>120</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="E21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="F21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="G21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="H21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="I21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="J21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="K21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="L21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="M21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="N21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="O21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="P21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="R21" s="8">
-        <v>330</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="F22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="I22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="J22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="L22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="M22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="O22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="P22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="R22" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="8">
         <v>200</v>
       </c>
-      <c r="D23" s="8">
-        <v>200</v>
-      </c>
-      <c r="E23" s="8">
-        <v>200</v>
-      </c>
-      <c r="F23" s="8">
-        <v>200</v>
-      </c>
-      <c r="G23" s="8">
-        <v>200</v>
-      </c>
-      <c r="H23" s="8">
-        <v>200</v>
-      </c>
-      <c r="I23" s="8">
-        <v>200</v>
-      </c>
-      <c r="J23" s="8">
-        <v>200</v>
-      </c>
-      <c r="K23" s="8">
-        <v>200</v>
-      </c>
-      <c r="L23" s="8">
-        <v>200</v>
-      </c>
-      <c r="M23" s="8">
-        <v>200</v>
-      </c>
-      <c r="N23" s="8">
-        <v>200</v>
-      </c>
-      <c r="O23" s="8">
-        <v>200</v>
-      </c>
-      <c r="P23" s="8">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>200</v>
-      </c>
-      <c r="R23" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25" spans="2:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="23" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+    </row>
+    <row r="24" spans="2:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="2:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -1720,20 +1735,21 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="2:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="7" t="s">
-        <v>1</v>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -1744,11 +1760,11 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="13" t="s">
-        <v>33</v>
+      <c r="D28" s="13">
+        <v>120</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1771,7 +1787,7 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="13">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1789,27 +1805,23 @@
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13">
-        <v>180</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
@@ -1818,8 +1830,8 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1850,7 +1862,7 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1963,30 +1975,11 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C14:R14"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1996,15 +1989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D48836B29ED3F344800F70505A7A17D0" ma:contentTypeVersion="14" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="4be0706bff25029382159b25a202952c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66893e81-d936-4dce-b920-1866070223b8" xmlns:ns3="7495421c-1cef-4175-9acb-f49c957ae79c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fe84aee096e3b90a89658e28e51b508" ns2:_="" ns3:_="">
     <xsd:import namespace="66893e81-d936-4dce-b920-1866070223b8"/>
@@ -2233,6 +2217,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2245,14 +2238,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84F94FE-B298-48DB-B4B4-A66036DF03EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964C3938-C86C-462F-A06F-194BF465E615}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,6 +2252,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84F94FE-B298-48DB-B4B4-A66036DF03EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
